--- a/data/output/FV2504_FV2410/ORDERS/17126.xlsx
+++ b/data/output/FV2504_FV2410/ORDERS/17126.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="215">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="215">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -777,6 +777,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U79" totalsRowShown="0">
+  <autoFilter ref="A1:U79"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1066,7 +1096,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4872,5 +4905,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/ORDERS/17126.xlsx
+++ b/data/output/FV2504_FV2410/ORDERS/17126.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2182" uniqueCount="294">
   <si>
     <t>#</t>
   </si>
@@ -3120,9 +3120,7 @@
         <v>181</v>
       </c>
       <c r="K34" s="5"/>
-      <c r="L34" s="7" t="s">
-        <v>202</v>
-      </c>
+      <c r="L34" s="4"/>
       <c r="M34" s="5" t="s">
         <v>28</v>
       </c>
@@ -3176,9 +3174,7 @@
         <v>181</v>
       </c>
       <c r="K35" s="5"/>
-      <c r="L35" s="7" t="s">
-        <v>202</v>
-      </c>
+      <c r="L35" s="4"/>
       <c r="M35" s="5" t="s">
         <v>28</v>
       </c>
@@ -3232,9 +3228,7 @@
         <v>181</v>
       </c>
       <c r="K36" s="5"/>
-      <c r="L36" s="7" t="s">
-        <v>202</v>
-      </c>
+      <c r="L36" s="4"/>
       <c r="M36" s="5" t="s">
         <v>28</v>
       </c>
@@ -3288,9 +3282,7 @@
         <v>181</v>
       </c>
       <c r="K37" s="5"/>
-      <c r="L37" s="7" t="s">
-        <v>202</v>
-      </c>
+      <c r="L37" s="4"/>
       <c r="M37" s="5" t="s">
         <v>28</v>
       </c>
@@ -3317,44 +3309,42 @@
       <c r="V37" s="5"/>
     </row>
     <row r="38" spans="1:22">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5" t="s">
+      <c r="C38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="K38" s="5"/>
-      <c r="L38" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="M38" s="5" t="s">
+      <c r="K38" s="2"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N38" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5" t="s">
+      <c r="N38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="V38" s="5"/>
+      <c r="V38" s="2"/>
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="5" t="s">
@@ -3683,46 +3673,44 @@
       <c r="V44" s="5"/>
     </row>
     <row r="45" spans="1:22">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5" t="s">
+      <c r="C45" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="K45" s="5" t="s">
+      <c r="K45" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="L45" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="M45" s="5" t="s">
+      <c r="L45" s="4"/>
+      <c r="M45" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N45" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="5" t="s">
+      <c r="N45" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="V45" s="5" t="s">
+      <c r="V45" s="2" t="s">
         <v>194</v>
       </c>
     </row>
@@ -4003,46 +3991,44 @@
       </c>
     </row>
     <row r="51" spans="1:22">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5" t="s">
+      <c r="C51" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="K51" s="5" t="s">
+      <c r="K51" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="L51" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="M51" s="5" t="s">
+      <c r="L51" s="4"/>
+      <c r="M51" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N51" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="5" t="s">
+      <c r="N51" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="V51" s="5" t="s">
+      <c r="V51" s="2" t="s">
         <v>196</v>
       </c>
     </row>
@@ -4734,9 +4720,7 @@
         <v>179</v>
       </c>
       <c r="K64" s="5"/>
-      <c r="L64" s="7" t="s">
-        <v>202</v>
-      </c>
+      <c r="L64" s="4"/>
       <c r="M64" s="5" t="s">
         <v>32</v>
       </c>
@@ -4763,46 +4747,44 @@
       <c r="V64" s="5"/>
     </row>
     <row r="65" spans="1:22">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5" t="s">
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="K65" s="5" t="s">
+      <c r="K65" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="L65" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="M65" s="5" t="s">
+      <c r="L65" s="4"/>
+      <c r="M65" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N65" s="5" t="s">
+      <c r="N65" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O65" s="5"/>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="5"/>
-      <c r="R65" s="5"/>
-      <c r="S65" s="5"/>
-      <c r="T65" s="5"/>
-      <c r="U65" s="5" t="s">
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
+      <c r="U65" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="V65" s="5" t="s">
+      <c r="V65" s="2" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5083,44 +5065,42 @@
       <c r="V70" s="5"/>
     </row>
     <row r="71" spans="1:22">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5" t="s">
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="K71" s="5"/>
-      <c r="L71" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="M71" s="5" t="s">
+      <c r="K71" s="2"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N71" s="5" t="s">
+      <c r="N71" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O71" s="5"/>
-      <c r="P71" s="5"/>
-      <c r="Q71" s="5"/>
-      <c r="R71" s="5"/>
-      <c r="S71" s="5"/>
-      <c r="T71" s="5"/>
-      <c r="U71" s="5" t="s">
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
+      <c r="U71" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="V71" s="5"/>
+      <c r="V71" s="2"/>
     </row>
     <row r="72" spans="1:22">
       <c r="A72" s="5" t="s">

--- a/data/output/FV2504_FV2410/ORDERS/17126.xlsx
+++ b/data/output/FV2504_FV2410/ORDERS/17126.xlsx
@@ -1471,7 +1471,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1835,7 +1835,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N20" s="2" t="s">
@@ -2723,44 +2723,44 @@
       <c r="V26" s="5"/>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
       <c r="J27" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="K27" s="5"/>
+      <c r="K27" s="2"/>
       <c r="L27" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="M27" s="5" t="s">
+      <c r="M27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N27" s="5" t="s">
+      <c r="N27" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
       <c r="U27" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="V27" s="5"/>
+      <c r="V27" s="2"/>
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="5" t="s">
@@ -2927,52 +2927,52 @@
       <c r="V30" s="5"/>
     </row>
     <row r="31" spans="1:22">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E31" s="5"/>
+      <c r="E31" s="2"/>
       <c r="F31" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5" t="s">
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="K31" s="5"/>
+      <c r="K31" s="2"/>
       <c r="L31" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="M31" s="5" t="s">
+      <c r="M31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N31" s="5" t="s">
+      <c r="N31" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O31" s="5" t="s">
+      <c r="O31" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="P31" s="5"/>
+      <c r="P31" s="2"/>
       <c r="Q31" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5" t="s">
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="V31" s="5"/>
+      <c r="V31" s="2"/>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="5" t="s">
@@ -3329,7 +3329,7 @@
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -3695,7 +3695,7 @@
         <v>194</v>
       </c>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -4013,7 +4013,7 @@
         <v>196</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4425,21 +4425,21 @@
       <c r="V58" s="5"/>
     </row>
     <row r="59" spans="1:22">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
+      <c r="C59" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
       <c r="J59" s="6" t="s">
         <v>187</v>
       </c>
@@ -4449,18 +4449,18 @@
       <c r="L59" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="M59" s="5" t="s">
+      <c r="M59" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N59" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O59" s="5"/>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5"/>
-      <c r="T59" s="5"/>
+      <c r="N59" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
       <c r="U59" s="6" t="s">
         <v>184</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>199</v>
       </c>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -4901,52 +4901,52 @@
       </c>
     </row>
     <row r="68" spans="1:22">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E68" s="5"/>
+      <c r="E68" s="2"/>
       <c r="F68" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5" t="s">
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="K68" s="5"/>
+      <c r="K68" s="2"/>
       <c r="L68" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="M68" s="5" t="s">
+      <c r="M68" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N68" s="5" t="s">
+      <c r="N68" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O68" s="5" t="s">
+      <c r="O68" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="P68" s="5"/>
+      <c r="P68" s="2"/>
       <c r="Q68" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="R68" s="5"/>
-      <c r="S68" s="5"/>
-      <c r="T68" s="5"/>
-      <c r="U68" s="5" t="s">
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="V68" s="5"/>
+      <c r="V68" s="2"/>
     </row>
     <row r="69" spans="1:22">
       <c r="A69" s="5" t="s">
@@ -5085,7 +5085,7 @@
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="4"/>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N71" s="2" t="s">
@@ -5267,48 +5267,48 @@
       <c r="V74" s="5"/>
     </row>
     <row r="75" spans="1:22">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5" t="s">
+      <c r="C75" s="2"/>
+      <c r="D75" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E75" s="5"/>
+      <c r="E75" s="2"/>
       <c r="F75" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5" t="s">
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="K75" s="5"/>
+      <c r="K75" s="2"/>
       <c r="L75" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="M75" s="5" t="s">
+      <c r="M75" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N75" s="5"/>
-      <c r="O75" s="5" t="s">
+      <c r="N75" s="2"/>
+      <c r="O75" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="P75" s="5"/>
+      <c r="P75" s="2"/>
       <c r="Q75" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="R75" s="5"/>
-      <c r="S75" s="5"/>
-      <c r="T75" s="5"/>
-      <c r="U75" s="5" t="s">
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="V75" s="5"/>
+      <c r="V75" s="2"/>
     </row>
     <row r="76" spans="1:22">
       <c r="A76" s="5" t="s">
@@ -5367,48 +5367,48 @@
       <c r="V76" s="5"/>
     </row>
     <row r="77" spans="1:22">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5" t="s">
+      <c r="C77" s="2"/>
+      <c r="D77" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E77" s="5"/>
+      <c r="E77" s="2"/>
       <c r="F77" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5" t="s">
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="K77" s="5"/>
+      <c r="K77" s="2"/>
       <c r="L77" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="M77" s="5" t="s">
+      <c r="M77" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N77" s="5"/>
-      <c r="O77" s="5" t="s">
+      <c r="N77" s="2"/>
+      <c r="O77" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="P77" s="5"/>
+      <c r="P77" s="2"/>
       <c r="Q77" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="R77" s="5"/>
-      <c r="S77" s="5"/>
-      <c r="T77" s="5"/>
-      <c r="U77" s="5" t="s">
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
+      <c r="U77" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="V77" s="5"/>
+      <c r="V77" s="2"/>
     </row>
     <row r="78" spans="1:22">
       <c r="A78" s="5" t="s">
